--- a/plots/experiment4_unconditional.xlsx
+++ b/plots/experiment4_unconditional.xlsx
@@ -555,22 +555,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0028</v>
+        <v>0.0027</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2335</v>
+        <v>-0.2035</v>
       </c>
       <c r="E4" t="n">
-        <v>1.4616</v>
+        <v>0.2761</v>
       </c>
       <c r="F4" t="n">
-        <v>1.1604</v>
+        <v>1.0603</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0211</v>
+        <v>0.0153</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9637</v>
+        <v>0.8157</v>
       </c>
       <c r="I4" t="n">
         <v>0.0182</v>
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0298</v>
+        <v>0.0302</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.2004</v>
+        <v>0.7022</v>
       </c>
       <c r="E5" t="n">
-        <v>2.362</v>
+        <v>-0.7401</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998</v>
+        <v>1.0044</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0047</v>
+        <v>0.0032</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9733000000000001</v>
+        <v>0.9661999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0019</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="6">
@@ -617,25 +617,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0256</v>
+        <v>0.0264</v>
       </c>
       <c r="D6" t="n">
-        <v>110.7374</v>
+        <v>144.6064</v>
       </c>
       <c r="E6" t="n">
-        <v>2.7284</v>
+        <v>0.9026</v>
       </c>
       <c r="F6" t="n">
-        <v>191210.8342</v>
+        <v>157872.7317</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0011</v>
+        <v>0.0106</v>
       </c>
       <c r="H6" t="n">
-        <v>109311.1017</v>
+        <v>115744.2768</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -646,25 +646,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>1.3085</v>
+        <v>0.2275</v>
       </c>
       <c r="E7" t="n">
-        <v>1.032</v>
+        <v>0.0533</v>
       </c>
       <c r="F7" t="n">
-        <v>2.3502</v>
+        <v>2.5635</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1924</v>
+        <v>2.1607</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0031</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="8">
@@ -678,22 +678,22 @@
         <v>0.0293</v>
       </c>
       <c r="D8" t="n">
-        <v>323.4728</v>
+        <v>325.5693</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.5484</v>
+        <v>-0.3064</v>
       </c>
       <c r="F8" t="n">
-        <v>3116.1283</v>
+        <v>3526.4566</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
       <c r="H8" t="n">
-        <v>3378.3728</v>
+        <v>3341.6802</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0042</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="9">
@@ -708,25 +708,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0351</v>
+        <v>0.035</v>
       </c>
       <c r="D9" t="n">
-        <v>5.7475</v>
+        <v>-0.2872</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4821</v>
+        <v>-0.4393</v>
       </c>
       <c r="F9" t="n">
-        <v>2.2002</v>
+        <v>1.6311</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0443</v>
+        <v>0.0119</v>
       </c>
       <c r="H9" t="n">
-        <v>1.8737</v>
+        <v>1.7575</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0133</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="10">
@@ -740,22 +740,22 @@
         <v>0.0065</v>
       </c>
       <c r="D10" t="n">
-        <v>1.8079</v>
+        <v>-2.0844</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4399</v>
+        <v>1.1848</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7734</v>
+        <v>0.7161</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0892</v>
+        <v>0.0298</v>
       </c>
       <c r="H10" t="n">
-        <v>0.667</v>
+        <v>0.6363</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0046</v>
+        <v>0.0484</v>
       </c>
     </row>
     <row r="11">
@@ -766,25 +766,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0048</v>
+        <v>0.0051</v>
       </c>
       <c r="D11" t="n">
-        <v>223.4488</v>
+        <v>240.1743</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.09329999999999999</v>
+        <v>4.21</v>
       </c>
       <c r="F11" t="n">
-        <v>1.7203</v>
+        <v>0.5108</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2045</v>
+        <v>0.0509</v>
       </c>
       <c r="H11" t="n">
-        <v>1.1088</v>
+        <v>1.1485</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0072</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +795,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0527</v>
+        <v>0.0528</v>
       </c>
       <c r="D12" t="n">
-        <v>68.6546</v>
+        <v>44.5967</v>
       </c>
       <c r="E12" t="n">
-        <v>1.748</v>
+        <v>-0.7259</v>
       </c>
       <c r="F12" t="n">
-        <v>1.0045</v>
+        <v>1.0029</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1</v>
+        <v>0.0128</v>
       </c>
       <c r="H12" t="n">
-        <v>0.959</v>
+        <v>0.9913</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0581</v>
+        <v>0.0145</v>
       </c>
     </row>
     <row r="13">
@@ -828,25 +828,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0389</v>
+        <v>0.0377</v>
       </c>
       <c r="D13" t="n">
-        <v>5.5218</v>
+        <v>5.4342</v>
       </c>
       <c r="E13" t="n">
-        <v>3.1968</v>
+        <v>-1.1554</v>
       </c>
       <c r="F13" t="n">
-        <v>3.0057</v>
+        <v>3.445</v>
       </c>
       <c r="G13" t="n">
-        <v>0.105</v>
+        <v>0.1524</v>
       </c>
       <c r="H13" t="n">
-        <v>2.734</v>
+        <v>2.6062</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0153</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +857,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0071</v>
+        <v>0.0061</v>
       </c>
       <c r="D14" t="n">
-        <v>2.8175</v>
+        <v>-0.1816</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3475</v>
+        <v>1.5529</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5258</v>
+        <v>0.5219</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5158</v>
+        <v>0.5134</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1136</v>
+        <v>0.1304</v>
       </c>
     </row>
     <row r="15">
@@ -886,25 +886,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0015</v>
+        <v>0.0033</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.5735</v>
+        <v>2.1493</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8431</v>
+        <v>-2.0362</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4902</v>
+        <v>0.4653</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0014</v>
+        <v>0.0054</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4837</v>
+        <v>0.4948</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0028</v>
+        <v>0.0027</v>
       </c>
       <c r="D16" t="n">
-        <v>1.1448</v>
+        <v>-0.508</v>
       </c>
       <c r="E16" t="n">
-        <v>2.1499</v>
+        <v>2.3582</v>
       </c>
       <c r="F16" t="n">
-        <v>2.4634</v>
+        <v>2.5685</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.5179</v>
+        <v>2.6054</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0039</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="17">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0104</v>
+        <v>0.0278</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0922</v>
+        <v>-0.8552999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>2.056</v>
+        <v>-0.5234</v>
       </c>
       <c r="F17" t="n">
-        <v>3.2996</v>
+        <v>3.197</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0304</v>
+        <v>0.058</v>
       </c>
       <c r="H17" t="n">
-        <v>2.8862</v>
+        <v>2.7564</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0329</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="18">
@@ -977,25 +977,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.0442</v>
+        <v>1.0479</v>
       </c>
       <c r="D18" t="n">
-        <v>602.6126</v>
+        <v>604.1975</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9556</v>
+        <v>0.2259</v>
       </c>
       <c r="F18" t="n">
-        <v>94798.11139999999</v>
+        <v>96004.70239999999</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0394</v>
+        <v>0.0398</v>
       </c>
       <c r="H18" t="n">
-        <v>73017.8125</v>
+        <v>74322.5598</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0433</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="19">
@@ -1006,25 +1006,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0091</v>
+        <v>-0.0072</v>
       </c>
       <c r="D19" t="n">
-        <v>2.7074</v>
+        <v>-1.5365</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.545</v>
+        <v>-1.155</v>
       </c>
       <c r="F19" t="n">
-        <v>3.1452</v>
+        <v>3.3582</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.0517</v>
       </c>
       <c r="H19" t="n">
-        <v>2.778</v>
+        <v>2.7583</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0136</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="20">
@@ -1035,25 +1035,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.6627</v>
+        <v>0.6528</v>
       </c>
       <c r="D20" t="n">
-        <v>471.1784</v>
+        <v>467.4832</v>
       </c>
       <c r="E20" t="n">
-        <v>1.6304</v>
+        <v>2.2759</v>
       </c>
       <c r="F20" t="n">
-        <v>77466.6336</v>
+        <v>82049.4572</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0483</v>
+        <v>0.0222</v>
       </c>
       <c r="H20" t="n">
-        <v>73005.23510000001</v>
+        <v>76012.9243</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0227</v>
+        <v>0.0346</v>
       </c>
     </row>
   </sheetData>
